--- a/results/escherichia_coli/Crp_ARs_Study/reaction_sensitivity_m9-EX_glc__D_e:10.0-deletion_crp.xlsx
+++ b/results/escherichia_coli/Crp_ARs_Study/reaction_sensitivity_m9-EX_glc__D_e:10.0-deletion_crp.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>896</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3">
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>891</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6">
@@ -495,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8">
@@ -517,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9">
@@ -528,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10">
@@ -539,10 +539,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11">
@@ -550,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>881</v>
+        <v>847</v>
       </c>
     </row>
     <row r="12">
@@ -561,10 +561,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>876</v>
+        <v>833</v>
       </c>
     </row>
     <row r="13">
@@ -572,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>873</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14">
@@ -583,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>866</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15">
@@ -594,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>849</v>
+        <v>827</v>
       </c>
     </row>
     <row r="16">
@@ -605,53 +605,9 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
         <v>820</v>
       </c>
     </row>
@@ -666,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3">
@@ -702,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4">
@@ -713,10 +669,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>852</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5">
@@ -724,10 +680,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6">
@@ -735,10 +691,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7">
@@ -746,10 +702,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>841</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8">
@@ -757,10 +713,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>839</v>
+        <v>796</v>
       </c>
     </row>
     <row r="9">
@@ -768,10 +724,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>836</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10">
@@ -779,10 +735,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>833</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11">
@@ -790,10 +746,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12">
@@ -801,10 +757,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="13">
@@ -812,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
         <v>796</v>
@@ -823,10 +779,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="15">
@@ -834,10 +790,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>790</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16">
@@ -845,54 +801,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
